--- a/00.Document/04.PM문서/Gantt 프로젝트 플래너1.xlsx
+++ b/00.Document/04.PM문서/Gantt 프로젝트 플래너1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JY\Documents\카카오톡 받은 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JY\Documents\GitHub\3DProject\00.Document\04.PM문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="64">
   <si>
     <t>활동 12</t>
   </si>
@@ -86,9 +86,6 @@
     <t>계획 시작</t>
   </si>
   <si>
-    <t>기간 계획</t>
-  </si>
-  <si>
     <t>실제 시작</t>
   </si>
   <si>
@@ -101,101 +98,11 @@
     <t>완료율</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>완료</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>실제(계획을 넘어서는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>완료(계획을 넘어서는)</t>
-    </r>
-  </si>
-  <si>
     <t>계획 기간</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>작업자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 플래너</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -232,10 +139,6 @@
   </si>
   <si>
     <t>우정윤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">시스템 기획서 : </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -331,7 +234,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>전체 컨셉 기획</t>
+    <t>계획한 기간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">실제 완료 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토타입용 QA 체크리스트 초안</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 플래너</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1챕터 컨텐츠 기획서 완성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 기획서 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 컨셉 기획서 작성</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -526,7 +453,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -618,23 +545,41 @@
       <right style="thick">
         <color theme="0"/>
       </right>
-      <top style="thin">
+      <top style="thick">
         <color theme="0"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color theme="0"/>
-      </left>
-      <right style="thick">
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color theme="0"/>
-      </right>
-      <top style="thick">
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="0"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -695,7 +640,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -759,119 +704,131 @@
     <xf numFmtId="177" fontId="4" fillId="6" borderId="5" xfId="13" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="15" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="7" borderId="8" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="15" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="12" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="7" borderId="0" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="7" borderId="10" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="8" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="7" borderId="9" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="13" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="15" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="17" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="12" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="10" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="10" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1395,10 +1352,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BR379"/>
+  <dimension ref="A1:BT376"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="CB18" sqref="CB18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1417,9 +1374,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.25">
-      <c r="A1" s="27"/>
-      <c r="B1" s="26" t="s">
-        <v>26</v>
+      <c r="A1" s="24"/>
+      <c r="B1" s="23" t="s">
+        <v>60</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="9"/>
@@ -1491,66 +1448,44 @@
       <c r="BR1" s="12"/>
     </row>
     <row r="2" spans="1:70" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
+      <c r="B2" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
       <c r="J2" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2" s="20">
         <v>1</v>
       </c>
       <c r="L2" s="11"/>
       <c r="M2" s="21"/>
-      <c r="N2" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="45"/>
-      <c r="AO2" s="45"/>
-      <c r="AP2" s="45"/>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="45"/>
-      <c r="AS2" s="45"/>
+      <c r="N2" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
       <c r="AT2" s="12"/>
       <c r="AU2" s="12"/>
       <c r="AV2" s="12"/>
@@ -1577,107 +1512,107 @@
       <c r="BQ2" s="12"/>
       <c r="BR2" s="12"/>
     </row>
-    <row r="3" spans="1:70" s="25" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="39"/>
-      <c r="AN3" s="39"/>
-      <c r="AO3" s="39"/>
-      <c r="AP3" s="39"/>
-      <c r="AQ3" s="39"/>
-      <c r="AR3" s="39"/>
-      <c r="AS3" s="39"/>
-      <c r="AT3" s="43"/>
-      <c r="AU3" s="43"/>
-      <c r="AV3" s="43"/>
-      <c r="AW3" s="43"/>
-      <c r="AX3" s="43"/>
-      <c r="AY3" s="43"/>
-      <c r="AZ3" s="43"/>
-      <c r="BA3" s="43"/>
-      <c r="BB3" s="43"/>
-      <c r="BC3" s="43"/>
-      <c r="BD3" s="43"/>
-      <c r="BE3" s="43"/>
-      <c r="BF3" s="43"/>
-      <c r="BG3" s="43"/>
-      <c r="BH3" s="43"/>
-      <c r="BI3" s="43"/>
-      <c r="BJ3" s="43"/>
-      <c r="BK3" s="43"/>
-      <c r="BL3" s="43"/>
-      <c r="BM3" s="43"/>
-      <c r="BN3" s="43"/>
-      <c r="BO3" s="43"/>
-      <c r="BP3" s="43"/>
-      <c r="BQ3" s="43"/>
-      <c r="BR3" s="43"/>
+    <row r="3" spans="1:70" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="35"/>
+      <c r="AM3" s="35"/>
+      <c r="AN3" s="35"/>
+      <c r="AO3" s="35"/>
+      <c r="AP3" s="35"/>
+      <c r="AQ3" s="35"/>
+      <c r="AR3" s="35"/>
+      <c r="AS3" s="35"/>
+      <c r="AT3" s="39"/>
+      <c r="AU3" s="39"/>
+      <c r="AV3" s="39"/>
+      <c r="AW3" s="39"/>
+      <c r="AX3" s="39"/>
+      <c r="AY3" s="39"/>
+      <c r="AZ3" s="39"/>
+      <c r="BA3" s="39"/>
+      <c r="BB3" s="39"/>
+      <c r="BC3" s="39"/>
+      <c r="BD3" s="39"/>
+      <c r="BE3" s="39"/>
+      <c r="BF3" s="39"/>
+      <c r="BG3" s="39"/>
+      <c r="BH3" s="39"/>
+      <c r="BI3" s="39"/>
+      <c r="BJ3" s="39"/>
+      <c r="BK3" s="39"/>
+      <c r="BL3" s="39"/>
+      <c r="BM3" s="39"/>
+      <c r="BN3" s="39"/>
+      <c r="BO3" s="39"/>
+      <c r="BP3" s="39"/>
+      <c r="BQ3" s="39"/>
+      <c r="BR3" s="39"/>
     </row>
     <row r="4" spans="1:70" s="4" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="47" t="s">
+      <c r="B4" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="D4" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="49" t="s">
+      <c r="G4" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="51" t="s">
-        <v>20</v>
+      <c r="J4" s="46" t="s">
+        <v>19</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="L4" s="13"/>
       <c r="M4" s="14"/>
@@ -1740,19 +1675,19 @@
       <c r="BR4" s="15"/>
     </row>
     <row r="5" spans="1:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
       <c r="K5" s="16">
         <v>9</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="51">
         <v>10</v>
       </c>
       <c r="M5" s="16">
@@ -1908,24 +1843,24 @@
     </row>
     <row r="6" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="29">
+        <v>35</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="25">
         <v>43199</v>
       </c>
-      <c r="G6" s="29">
-        <v>43205</v>
-      </c>
-      <c r="H6" s="29">
+      <c r="G6" s="25">
+        <v>43200</v>
+      </c>
+      <c r="H6" s="25">
         <v>9</v>
       </c>
       <c r="I6" s="6">
@@ -1934,8 +1869,8 @@
       <c r="J6" s="8">
         <v>1</v>
       </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="11"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="59"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
@@ -1997,24 +1932,24 @@
     </row>
     <row r="7" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="29">
+        <v>34</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="25">
         <v>43199</v>
       </c>
-      <c r="G7" s="29">
-        <v>43205</v>
-      </c>
-      <c r="H7" s="29">
+      <c r="G7" s="25">
+        <v>43200</v>
+      </c>
+      <c r="H7" s="25">
         <v>9</v>
       </c>
       <c r="I7" s="6">
@@ -2023,8 +1958,8 @@
       <c r="J7" s="8">
         <v>1</v>
       </c>
-      <c r="K7" s="28"/>
-      <c r="L7" s="11"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="61"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
@@ -2086,24 +2021,24 @@
     </row>
     <row r="8" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="29">
+        <v>39</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="25">
         <v>43199</v>
       </c>
-      <c r="G8" s="29">
-        <v>43205</v>
-      </c>
-      <c r="H8" s="29">
+      <c r="G8" s="25">
+        <v>43200</v>
+      </c>
+      <c r="H8" s="25">
         <v>9</v>
       </c>
       <c r="I8" s="6">
@@ -2112,8 +2047,8 @@
       <c r="J8" s="8">
         <v>1</v>
       </c>
-      <c r="K8" s="28"/>
-      <c r="L8" s="11"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="56"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
@@ -2175,24 +2110,24 @@
     </row>
     <row r="9" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="29">
+        <v>36</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="25">
         <v>43199</v>
       </c>
-      <c r="G9" s="29">
-        <v>43205</v>
-      </c>
-      <c r="H9" s="29">
+      <c r="G9" s="25">
+        <v>43200</v>
+      </c>
+      <c r="H9" s="25">
         <v>9</v>
       </c>
       <c r="I9" s="6">
@@ -2201,8 +2136,8 @@
       <c r="J9" s="8">
         <v>1</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="61"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
@@ -2264,24 +2199,24 @@
     </row>
     <row r="10" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="29">
+        <v>38</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="25">
         <v>43199</v>
       </c>
-      <c r="G10" s="29">
-        <v>43205</v>
-      </c>
-      <c r="H10" s="29">
+      <c r="G10" s="25">
+        <v>43200</v>
+      </c>
+      <c r="H10" s="25">
         <v>9</v>
       </c>
       <c r="I10" s="6">
@@ -2290,8 +2225,8 @@
       <c r="J10" s="8">
         <v>1</v>
       </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="56"/>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
@@ -2353,34 +2288,34 @@
     </row>
     <row r="11" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="29">
+        <v>40</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="25">
         <v>43199</v>
       </c>
-      <c r="G11" s="29">
-        <v>43205</v>
-      </c>
-      <c r="H11" s="29">
+      <c r="G11" s="25">
+        <v>43200</v>
+      </c>
+      <c r="H11" s="25">
         <v>9</v>
       </c>
       <c r="I11" s="6">
         <v>1</v>
       </c>
       <c r="J11" s="8">
-        <v>0</v>
-      </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="K11" s="57"/>
+      <c r="L11" s="56"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
@@ -2442,24 +2377,24 @@
     </row>
     <row r="12" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="29">
+        <v>37</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="25">
         <v>43199</v>
       </c>
-      <c r="G12" s="29">
-        <v>43205</v>
-      </c>
-      <c r="H12" s="29">
+      <c r="G12" s="25">
+        <v>43200</v>
+      </c>
+      <c r="H12" s="25">
         <v>9</v>
       </c>
       <c r="I12" s="6">
@@ -2469,7 +2404,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
+      <c r="L12" s="52"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
@@ -2531,24 +2466,24 @@
     </row>
     <row r="13" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="29">
+        <v>41</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="25">
         <v>43199</v>
       </c>
-      <c r="G13" s="29">
-        <v>43205</v>
-      </c>
-      <c r="H13" s="29">
+      <c r="G13" s="25">
+        <v>43200</v>
+      </c>
+      <c r="H13" s="25">
         <v>9</v>
       </c>
       <c r="I13" s="6">
@@ -2557,8 +2492,8 @@
       <c r="J13" s="8">
         <v>1</v>
       </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="56"/>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
@@ -2620,34 +2555,34 @@
     </row>
     <row r="14" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="29">
+        <v>42</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="25">
         <v>43199</v>
       </c>
-      <c r="G14" s="29">
-        <v>43205</v>
-      </c>
-      <c r="H14" s="29">
+      <c r="G14" s="25">
+        <v>43200</v>
+      </c>
+      <c r="H14" s="25">
         <v>9</v>
       </c>
       <c r="I14" s="6">
         <v>1</v>
       </c>
       <c r="J14" s="8">
-        <v>0</v>
-      </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="57"/>
+      <c r="L14" s="56"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
@@ -2709,31 +2644,31 @@
     </row>
     <row r="15" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="29">
+        <v>47</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="25">
+        <v>43199</v>
+      </c>
+      <c r="G15" s="25">
         <v>43200</v>
       </c>
-      <c r="G15" s="29">
-        <v>43205</v>
-      </c>
-      <c r="H15" s="29">
+      <c r="H15" s="25">
         <v>9</v>
       </c>
       <c r="I15" s="6">
         <v>2</v>
       </c>
       <c r="J15" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
@@ -2798,31 +2733,31 @@
     </row>
     <row r="16" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="29">
+        <v>48</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="25">
         <v>43199</v>
       </c>
-      <c r="G16" s="29">
-        <v>43205</v>
-      </c>
-      <c r="H16" s="29">
+      <c r="G16" s="25">
+        <v>43200</v>
+      </c>
+      <c r="H16" s="25">
         <v>9</v>
       </c>
       <c r="I16" s="6">
         <v>2</v>
       </c>
       <c r="J16" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
@@ -2885,33 +2820,33 @@
       <c r="BQ16" s="12"/>
       <c r="BR16" s="12"/>
     </row>
-    <row r="17" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:72" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="29">
+        <v>49</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="25">
         <v>43199</v>
       </c>
-      <c r="G17" s="29">
-        <v>43205</v>
-      </c>
-      <c r="H17" s="29">
+      <c r="G17" s="25">
+        <v>43200</v>
+      </c>
+      <c r="H17" s="25">
         <v>9</v>
       </c>
       <c r="I17" s="6">
         <v>2</v>
       </c>
       <c r="J17" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
@@ -2974,41 +2909,39 @@
       <c r="BQ17" s="12"/>
       <c r="BR17" s="12"/>
     </row>
-    <row r="18" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:72" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="29">
+        <v>61</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="25">
         <v>43199</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="25">
         <v>43205</v>
       </c>
-      <c r="H18" s="29">
-        <v>9</v>
-      </c>
+      <c r="H18" s="25"/>
       <c r="I18" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J18" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
@@ -3055,49 +2988,51 @@
       <c r="BI18" s="12"/>
       <c r="BJ18" s="12"/>
       <c r="BK18" s="12"/>
-      <c r="BL18" s="12"/>
-      <c r="BM18" s="12"/>
-      <c r="BN18" s="12"/>
-      <c r="BO18" s="12"/>
-      <c r="BP18" s="12"/>
-      <c r="BQ18" s="12"/>
-      <c r="BR18" s="12"/>
-    </row>
-    <row r="19" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="BL18" s="2"/>
+      <c r="BM18" s="2"/>
+      <c r="BN18" s="2"/>
+      <c r="BO18" s="2"/>
+      <c r="BP18" s="2"/>
+      <c r="BQ18" s="2"/>
+      <c r="BR18" s="2"/>
+      <c r="BS18" s="2"/>
+      <c r="BT18" s="2"/>
+    </row>
+    <row r="19" spans="2:72" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="29">
+      <c r="F19" s="25">
         <v>43199</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="25">
         <v>43205</v>
       </c>
-      <c r="H19" s="29">
+      <c r="H19" s="25">
         <v>9</v>
       </c>
       <c r="I19" s="6">
         <v>3</v>
       </c>
       <c r="J19" s="8">
-        <v>0</v>
-      </c>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
       <c r="T19" s="11"/>
@@ -3152,41 +3087,41 @@
       <c r="BQ19" s="12"/>
       <c r="BR19" s="12"/>
     </row>
-    <row r="20" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:72" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="29">
+        <v>31</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="25">
         <v>43199</v>
       </c>
-      <c r="G20" s="29">
+      <c r="G20" s="25">
         <v>43205</v>
       </c>
-      <c r="H20" s="29">
-        <v>9</v>
+      <c r="H20" s="25">
+        <v>4</v>
       </c>
       <c r="I20" s="6">
         <v>3</v>
       </c>
       <c r="J20" s="8">
-        <v>0</v>
-      </c>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
       <c r="R20" s="11"/>
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
@@ -3241,33 +3176,33 @@
       <c r="BQ20" s="12"/>
       <c r="BR20" s="12"/>
     </row>
-    <row r="21" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:72" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="29">
+      <c r="F21" s="25">
         <v>43199</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="25">
         <v>43205</v>
       </c>
-      <c r="H21" s="29">
-        <v>4</v>
+      <c r="H21" s="25">
+        <v>9</v>
       </c>
       <c r="I21" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J21" s="8">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
@@ -3330,33 +3265,33 @@
       <c r="BQ21" s="12"/>
       <c r="BR21" s="12"/>
     </row>
-    <row r="22" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:72" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="29">
+        <v>53</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="25">
         <v>43199</v>
       </c>
-      <c r="G22" s="29">
+      <c r="G22" s="25">
         <v>43205</v>
       </c>
-      <c r="H22" s="29">
+      <c r="H22" s="25">
         <v>9</v>
       </c>
       <c r="I22" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J22" s="8">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
@@ -3419,33 +3354,33 @@
       <c r="BQ22" s="12"/>
       <c r="BR22" s="12"/>
     </row>
-    <row r="23" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:72" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="29">
+        <v>54</v>
+      </c>
+      <c r="E23" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="25">
         <v>43199</v>
       </c>
-      <c r="G23" s="29">
+      <c r="G23" s="25">
         <v>43205</v>
       </c>
-      <c r="H23" s="29">
+      <c r="H23" s="25">
         <v>9</v>
       </c>
       <c r="I23" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J23" s="8">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
@@ -3508,33 +3443,33 @@
       <c r="BQ23" s="12"/>
       <c r="BR23" s="12"/>
     </row>
-    <row r="24" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:72" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="29">
+        <v>59</v>
+      </c>
+      <c r="E24" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="25">
         <v>43199</v>
       </c>
-      <c r="G24" s="29">
+      <c r="G24" s="25">
         <v>43205</v>
       </c>
-      <c r="H24" s="29">
+      <c r="H24" s="25">
         <v>9</v>
       </c>
       <c r="I24" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J24" s="8">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
@@ -3597,31 +3532,33 @@
       <c r="BQ24" s="12"/>
       <c r="BR24" s="12"/>
     </row>
-    <row r="25" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:72" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="29">
-        <v>43199</v>
-      </c>
-      <c r="G25" s="29">
-        <v>43205</v>
-      </c>
-      <c r="H25" s="29">
+        <v>55</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="25">
+        <v>43200</v>
+      </c>
+      <c r="G25" s="25">
+        <v>43206</v>
+      </c>
+      <c r="H25" s="25">
         <v>9</v>
       </c>
       <c r="I25" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J25" s="8">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
@@ -3684,31 +3621,27 @@
       <c r="BQ25" s="12"/>
       <c r="BR25" s="12"/>
     </row>
-    <row r="26" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:72" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="E26" s="5"/>
       <c r="F26" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G26" s="6">
-        <v>3</v>
-      </c>
-      <c r="H26" s="29">
+        <v>2</v>
+      </c>
+      <c r="H26" s="25">
         <v>9</v>
       </c>
       <c r="I26" s="6">
         <v>6</v>
       </c>
       <c r="J26" s="8">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
@@ -3771,31 +3704,27 @@
       <c r="BQ26" s="12"/>
       <c r="BR26" s="12"/>
     </row>
-    <row r="27" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:72" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>63</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C27" s="5"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="E27" s="5"/>
       <c r="F27" s="6">
+        <v>6</v>
+      </c>
+      <c r="G27" s="6">
         <v>5</v>
       </c>
-      <c r="G27" s="6">
-        <v>4</v>
-      </c>
-      <c r="H27" s="29">
+      <c r="H27" s="25">
         <v>9</v>
       </c>
       <c r="I27" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J27" s="8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
@@ -3858,28 +3787,24 @@
       <c r="BQ27" s="12"/>
       <c r="BR27" s="12"/>
     </row>
-    <row r="28" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:72" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>61</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F28" s="6">
-        <v>5</v>
+      <c r="E28" s="5"/>
+      <c r="F28" s="7">
+        <v>6</v>
       </c>
       <c r="G28" s="6">
-        <v>2</v>
-      </c>
-      <c r="H28" s="29">
+        <v>1</v>
+      </c>
+      <c r="H28" s="25">
         <v>9</v>
       </c>
       <c r="I28" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J28" s="8">
         <v>0.6</v>
@@ -3945,27 +3870,27 @@
       <c r="BQ28" s="12"/>
       <c r="BR28" s="12"/>
     </row>
-    <row r="29" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:72" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G29" s="6">
-        <v>2</v>
-      </c>
-      <c r="H29" s="29">
+        <v>3</v>
+      </c>
+      <c r="H29" s="25">
         <v>9</v>
       </c>
       <c r="I29" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J29" s="8">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="K29" s="11"/>
       <c r="L29" s="11"/>
@@ -4028,27 +3953,27 @@
       <c r="BQ29" s="12"/>
       <c r="BR29" s="12"/>
     </row>
-    <row r="30" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:72" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="6">
+        <v>9</v>
+      </c>
+      <c r="G30" s="6">
         <v>6</v>
       </c>
-      <c r="G30" s="6">
-        <v>5</v>
-      </c>
-      <c r="H30" s="29">
+      <c r="H30" s="25">
         <v>9</v>
       </c>
       <c r="I30" s="6">
         <v>7</v>
       </c>
       <c r="J30" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
@@ -4111,27 +4036,27 @@
       <c r="BQ30" s="12"/>
       <c r="BR30" s="12"/>
     </row>
-    <row r="31" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:72" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="7">
-        <v>6</v>
+      <c r="F31" s="6">
+        <v>9</v>
       </c>
       <c r="G31" s="6">
+        <v>3</v>
+      </c>
+      <c r="H31" s="25">
+        <v>9</v>
+      </c>
+      <c r="I31" s="6">
         <v>1</v>
       </c>
-      <c r="H31" s="29">
-        <v>9</v>
-      </c>
-      <c r="I31" s="6">
-        <v>8</v>
-      </c>
       <c r="J31" s="8">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
@@ -4194,9 +4119,9 @@
       <c r="BQ31" s="12"/>
       <c r="BR31" s="12"/>
     </row>
-    <row r="32" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:72" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -4205,16 +4130,16 @@
         <v>9</v>
       </c>
       <c r="G32" s="6">
-        <v>3</v>
-      </c>
-      <c r="H32" s="29">
+        <v>4</v>
+      </c>
+      <c r="H32" s="25">
         <v>9</v>
       </c>
       <c r="I32" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J32" s="8">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
@@ -4279,25 +4204,25 @@
     </row>
     <row r="33" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G33" s="6">
-        <v>6</v>
-      </c>
-      <c r="H33" s="29">
+        <v>5</v>
+      </c>
+      <c r="H33" s="25">
         <v>9</v>
       </c>
       <c r="I33" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J33" s="8">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
@@ -4362,22 +4287,22 @@
     </row>
     <row r="34" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G34" s="6">
-        <v>3</v>
-      </c>
-      <c r="H34" s="29">
+        <v>2</v>
+      </c>
+      <c r="H34" s="25">
         <v>9</v>
       </c>
       <c r="I34" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J34" s="8">
         <v>0</v>
@@ -4445,25 +4370,25 @@
     </row>
     <row r="35" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G35" s="6">
-        <v>4</v>
-      </c>
-      <c r="H35" s="29">
+        <v>6</v>
+      </c>
+      <c r="H35" s="25">
         <v>9</v>
       </c>
       <c r="I35" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J35" s="8">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
@@ -4528,25 +4453,25 @@
     </row>
     <row r="36" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G36" s="6">
+        <v>1</v>
+      </c>
+      <c r="H36" s="25">
+        <v>4</v>
+      </c>
+      <c r="I36" s="6">
         <v>5</v>
       </c>
-      <c r="H36" s="29">
-        <v>9</v>
-      </c>
-      <c r="I36" s="6">
-        <v>3</v>
-      </c>
       <c r="J36" s="8">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
@@ -4611,22 +4536,22 @@
     </row>
     <row r="37" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G37" s="6">
-        <v>2</v>
-      </c>
-      <c r="H37" s="29">
+        <v>5</v>
+      </c>
+      <c r="H37" s="25">
         <v>9</v>
       </c>
       <c r="I37" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J37" s="8">
         <v>0</v>
@@ -4694,25 +4619,25 @@
     </row>
     <row r="38" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G38" s="6">
-        <v>6</v>
-      </c>
-      <c r="H38" s="29">
+        <v>8</v>
+      </c>
+      <c r="H38" s="25">
         <v>9</v>
       </c>
       <c r="I38" s="6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J38" s="8">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
@@ -4777,22 +4702,22 @@
     </row>
     <row r="39" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G39" s="6">
-        <v>1</v>
-      </c>
-      <c r="H39" s="29">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="H39" s="25">
+        <v>9</v>
       </c>
       <c r="I39" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J39" s="8">
         <v>0</v>
@@ -4860,25 +4785,25 @@
     </row>
     <row r="40" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G40" s="6">
-        <v>5</v>
-      </c>
-      <c r="H40" s="29">
+        <v>4</v>
+      </c>
+      <c r="H40" s="25">
         <v>9</v>
       </c>
       <c r="I40" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J40" s="8">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
@@ -4943,25 +4868,25 @@
     </row>
     <row r="41" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="5" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G41" s="6">
-        <v>8</v>
-      </c>
-      <c r="H41" s="29">
+        <v>5</v>
+      </c>
+      <c r="H41" s="25">
         <v>9</v>
       </c>
       <c r="I41" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J41" s="8">
-        <v>0.44</v>
+        <v>0.05</v>
       </c>
       <c r="K41" s="11"/>
       <c r="L41" s="11"/>
@@ -5026,22 +4951,22 @@
     </row>
     <row r="42" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="5" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G42" s="6">
-        <v>7</v>
-      </c>
-      <c r="H42" s="29">
+        <v>8</v>
+      </c>
+      <c r="H42" s="25">
         <v>9</v>
       </c>
       <c r="I42" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J42" s="8">
         <v>0</v>
@@ -5109,25 +5034,25 @@
     </row>
     <row r="43" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="5" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G43" s="6">
-        <v>4</v>
-      </c>
-      <c r="H43" s="29">
+        <v>28</v>
+      </c>
+      <c r="H43" s="25">
         <v>9</v>
       </c>
       <c r="I43" s="6">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="J43" s="8">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="K43" s="11"/>
       <c r="L43" s="11"/>
@@ -5191,1922 +5116,1673 @@
       <c r="BR43" s="12"/>
     </row>
     <row r="44" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="6">
-        <v>15</v>
-      </c>
-      <c r="G44" s="6">
-        <v>5</v>
-      </c>
-      <c r="H44" s="29">
-        <v>9</v>
-      </c>
-      <c r="I44" s="6">
-        <v>3</v>
-      </c>
-      <c r="J44" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="11"/>
-      <c r="R44" s="11"/>
-      <c r="S44" s="11"/>
-      <c r="T44" s="11"/>
-      <c r="U44" s="11"/>
-      <c r="V44" s="11"/>
-      <c r="W44" s="11"/>
-      <c r="X44" s="11"/>
-      <c r="Y44" s="11"/>
-      <c r="Z44" s="11"/>
-      <c r="AA44" s="11"/>
-      <c r="AB44" s="11"/>
-      <c r="AC44" s="11"/>
-      <c r="AD44" s="11"/>
-      <c r="AE44" s="12"/>
-      <c r="AF44" s="12"/>
-      <c r="AG44" s="12"/>
-      <c r="AH44" s="12"/>
-      <c r="AI44" s="12"/>
-      <c r="AJ44" s="12"/>
-      <c r="AK44" s="12"/>
-      <c r="AL44" s="12"/>
-      <c r="AM44" s="12"/>
-      <c r="AN44" s="12"/>
-      <c r="AO44" s="12"/>
-      <c r="AP44" s="12"/>
-      <c r="AQ44" s="12"/>
-      <c r="AR44" s="12"/>
-      <c r="AS44" s="12"/>
-      <c r="AT44" s="12"/>
-      <c r="AU44" s="12"/>
-      <c r="AV44" s="12"/>
-      <c r="AW44" s="12"/>
-      <c r="AX44" s="12"/>
-      <c r="AY44" s="12"/>
-      <c r="AZ44" s="12"/>
-      <c r="BA44" s="12"/>
-      <c r="BB44" s="12"/>
-      <c r="BC44" s="12"/>
-      <c r="BD44" s="12"/>
-      <c r="BE44" s="12"/>
-      <c r="BF44" s="12"/>
-      <c r="BG44" s="12"/>
-      <c r="BH44" s="12"/>
-      <c r="BI44" s="12"/>
-      <c r="BJ44" s="12"/>
-      <c r="BK44" s="12"/>
-      <c r="BL44" s="12"/>
-      <c r="BM44" s="12"/>
-      <c r="BN44" s="12"/>
-      <c r="BO44" s="12"/>
-      <c r="BP44" s="12"/>
-      <c r="BQ44" s="12"/>
-      <c r="BR44" s="12"/>
+      <c r="H44" s="25">
+        <v>9</v>
+      </c>
     </row>
     <row r="45" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="6">
-        <v>15</v>
-      </c>
-      <c r="G45" s="6">
-        <v>8</v>
-      </c>
-      <c r="H45" s="29">
-        <v>9</v>
-      </c>
-      <c r="I45" s="6">
-        <v>5</v>
-      </c>
-      <c r="J45" s="8">
-        <v>0</v>
-      </c>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="11"/>
-      <c r="R45" s="11"/>
-      <c r="S45" s="11"/>
-      <c r="T45" s="11"/>
-      <c r="U45" s="11"/>
-      <c r="V45" s="11"/>
-      <c r="W45" s="11"/>
-      <c r="X45" s="11"/>
-      <c r="Y45" s="11"/>
-      <c r="Z45" s="11"/>
-      <c r="AA45" s="11"/>
-      <c r="AB45" s="11"/>
-      <c r="AC45" s="11"/>
-      <c r="AD45" s="11"/>
-      <c r="AE45" s="12"/>
-      <c r="AF45" s="12"/>
-      <c r="AG45" s="12"/>
-      <c r="AH45" s="12"/>
-      <c r="AI45" s="12"/>
-      <c r="AJ45" s="12"/>
-      <c r="AK45" s="12"/>
-      <c r="AL45" s="12"/>
-      <c r="AM45" s="12"/>
-      <c r="AN45" s="12"/>
-      <c r="AO45" s="12"/>
-      <c r="AP45" s="12"/>
-      <c r="AQ45" s="12"/>
-      <c r="AR45" s="12"/>
-      <c r="AS45" s="12"/>
-      <c r="AT45" s="12"/>
-      <c r="AU45" s="12"/>
-      <c r="AV45" s="12"/>
-      <c r="AW45" s="12"/>
-      <c r="AX45" s="12"/>
-      <c r="AY45" s="12"/>
-      <c r="AZ45" s="12"/>
-      <c r="BA45" s="12"/>
-      <c r="BB45" s="12"/>
-      <c r="BC45" s="12"/>
-      <c r="BD45" s="12"/>
-      <c r="BE45" s="12"/>
-      <c r="BF45" s="12"/>
-      <c r="BG45" s="12"/>
-      <c r="BH45" s="12"/>
-      <c r="BI45" s="12"/>
-      <c r="BJ45" s="12"/>
-      <c r="BK45" s="12"/>
-      <c r="BL45" s="12"/>
-      <c r="BM45" s="12"/>
-      <c r="BN45" s="12"/>
-      <c r="BO45" s="12"/>
-      <c r="BP45" s="12"/>
-      <c r="BQ45" s="12"/>
-      <c r="BR45" s="12"/>
+      <c r="H45" s="25">
+        <v>9</v>
+      </c>
     </row>
     <row r="46" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="6">
-        <v>16</v>
-      </c>
-      <c r="G46" s="6">
-        <v>28</v>
-      </c>
-      <c r="H46" s="29">
-        <v>9</v>
-      </c>
-      <c r="I46" s="6">
-        <v>30</v>
-      </c>
-      <c r="J46" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="11"/>
-      <c r="R46" s="11"/>
-      <c r="S46" s="11"/>
-      <c r="T46" s="11"/>
-      <c r="U46" s="11"/>
-      <c r="V46" s="11"/>
-      <c r="W46" s="11"/>
-      <c r="X46" s="11"/>
-      <c r="Y46" s="11"/>
-      <c r="Z46" s="11"/>
-      <c r="AA46" s="11"/>
-      <c r="AB46" s="11"/>
-      <c r="AC46" s="11"/>
-      <c r="AD46" s="11"/>
-      <c r="AE46" s="12"/>
-      <c r="AF46" s="12"/>
-      <c r="AG46" s="12"/>
-      <c r="AH46" s="12"/>
-      <c r="AI46" s="12"/>
-      <c r="AJ46" s="12"/>
-      <c r="AK46" s="12"/>
-      <c r="AL46" s="12"/>
-      <c r="AM46" s="12"/>
-      <c r="AN46" s="12"/>
-      <c r="AO46" s="12"/>
-      <c r="AP46" s="12"/>
-      <c r="AQ46" s="12"/>
-      <c r="AR46" s="12"/>
-      <c r="AS46" s="12"/>
-      <c r="AT46" s="12"/>
-      <c r="AU46" s="12"/>
-      <c r="AV46" s="12"/>
-      <c r="AW46" s="12"/>
-      <c r="AX46" s="12"/>
-      <c r="AY46" s="12"/>
-      <c r="AZ46" s="12"/>
-      <c r="BA46" s="12"/>
-      <c r="BB46" s="12"/>
-      <c r="BC46" s="12"/>
-      <c r="BD46" s="12"/>
-      <c r="BE46" s="12"/>
-      <c r="BF46" s="12"/>
-      <c r="BG46" s="12"/>
-      <c r="BH46" s="12"/>
-      <c r="BI46" s="12"/>
-      <c r="BJ46" s="12"/>
-      <c r="BK46" s="12"/>
-      <c r="BL46" s="12"/>
-      <c r="BM46" s="12"/>
-      <c r="BN46" s="12"/>
-      <c r="BO46" s="12"/>
-      <c r="BP46" s="12"/>
-      <c r="BQ46" s="12"/>
-      <c r="BR46" s="12"/>
+      <c r="H46" s="25">
+        <v>9</v>
+      </c>
     </row>
     <row r="47" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H47" s="29">
+      <c r="H47" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="48" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H48" s="29">
+      <c r="H48" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="49" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H49" s="29">
+      <c r="H49" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="50" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H50" s="29">
+      <c r="H50" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="51" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H51" s="29">
-        <v>9</v>
+      <c r="H51" s="25">
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H52" s="29">
+      <c r="H52" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="53" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H53" s="29">
+      <c r="H53" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="54" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H54" s="29">
+      <c r="H54" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H55" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H56" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H57" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H58" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H59" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H60" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H61" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H62" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H63" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H64" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H65" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H66" s="25">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H55" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H56" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H57" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H58" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H59" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H60" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H61" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H62" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H63" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H64" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H65" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H66" s="29">
-        <v>9</v>
-      </c>
-    </row>
     <row r="67" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H67" s="29">
+      <c r="H67" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="68" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H68" s="29">
+      <c r="H68" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="69" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H69" s="29">
+      <c r="H69" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H70" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H71" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H72" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H73" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H74" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H75" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H76" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H77" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H78" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H79" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H80" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H81" s="25">
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H70" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H71" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H72" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H73" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H74" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H75" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H76" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H77" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H78" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H79" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H80" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H81" s="29">
-        <v>9</v>
-      </c>
-    </row>
     <row r="82" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H82" s="29">
+      <c r="H82" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="83" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H83" s="29">
+      <c r="H83" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="84" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H84" s="29">
+      <c r="H84" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H85" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H86" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H87" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H88" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H89" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H90" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H91" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H92" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H93" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H94" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H95" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H96" s="25">
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H85" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H86" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H87" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H88" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H89" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H90" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H91" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H92" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H93" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H94" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H95" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H96" s="29">
-        <v>9</v>
-      </c>
-    </row>
     <row r="97" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H97" s="29">
+      <c r="H97" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="98" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H98" s="29">
+      <c r="H98" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="99" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H99" s="29">
+      <c r="H99" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H100" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H101" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H102" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H103" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H104" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H105" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H106" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H107" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H108" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H109" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H110" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H111" s="25">
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H100" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H101" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="102" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H102" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="103" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H103" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="104" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H104" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="105" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H105" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="106" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H106" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="107" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H107" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="108" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H108" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="109" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H109" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="110" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H110" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="111" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H111" s="29">
-        <v>9</v>
-      </c>
-    </row>
     <row r="112" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H112" s="29">
+      <c r="H112" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="113" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H113" s="29">
+      <c r="H113" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="114" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H114" s="29">
+      <c r="H114" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H115" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H116" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H117" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H118" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H119" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H120" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H121" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H122" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H123" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H124" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H125" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H126" s="25">
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H115" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="116" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H116" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="117" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H117" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="118" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H118" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="119" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H119" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="120" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H120" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="121" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H121" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="122" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H122" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="123" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H123" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="124" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H124" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="125" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H125" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="126" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H126" s="29">
-        <v>9</v>
-      </c>
-    </row>
     <row r="127" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H127" s="29">
+      <c r="H127" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="128" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H128" s="29">
+      <c r="H128" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="129" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H129" s="29">
+      <c r="H129" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H130" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H131" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H132" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H133" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H134" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H135" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H136" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H137" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H138" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H139" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H140" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H141" s="25">
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H130" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="131" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H131" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="132" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H132" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="133" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H133" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="134" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H134" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="135" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H135" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="136" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H136" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="137" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H137" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="138" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H138" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="139" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H139" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="140" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H140" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="141" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H141" s="29">
-        <v>9</v>
-      </c>
-    </row>
     <row r="142" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H142" s="29">
+      <c r="H142" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="143" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H143" s="29">
+      <c r="H143" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="144" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H144" s="29">
+      <c r="H144" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H145" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H146" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H147" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H148" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H149" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H150" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H151" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H152" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H153" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H154" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H155" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H156" s="25">
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H145" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="146" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H146" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="147" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H147" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="148" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H148" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="149" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H149" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="150" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H150" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="151" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H151" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="152" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H152" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="153" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H153" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="154" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H154" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="155" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H155" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="156" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H156" s="29">
-        <v>9</v>
-      </c>
-    </row>
     <row r="157" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H157" s="29">
+      <c r="H157" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="158" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H158" s="29">
+      <c r="H158" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="159" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H159" s="29">
+      <c r="H159" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H160" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H161" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H162" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H163" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H164" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H165" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H166" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H167" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H168" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H169" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H170" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H171" s="25">
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H160" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="161" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H161" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="162" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H162" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="163" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H163" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="164" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H164" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="165" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H165" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="166" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H166" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="167" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H167" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="168" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H168" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="169" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H169" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="170" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H170" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="171" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H171" s="29">
-        <v>9</v>
-      </c>
-    </row>
     <row r="172" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H172" s="29">
+      <c r="H172" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="173" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H173" s="29">
+      <c r="H173" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="174" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H174" s="29">
+      <c r="H174" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H175" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H176" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H177" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H178" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H179" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H180" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H181" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H182" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H183" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H184" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H185" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H186" s="25">
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H175" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="176" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H176" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="177" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H177" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="178" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H178" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="179" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H179" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="180" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H180" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="181" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H181" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="182" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H182" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="183" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H183" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="184" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H184" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="185" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H185" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="186" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H186" s="29">
-        <v>9</v>
-      </c>
-    </row>
     <row r="187" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H187" s="29">
+      <c r="H187" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="188" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H188" s="29">
+      <c r="H188" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="189" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H189" s="29">
+      <c r="H189" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H190" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H191" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H192" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H193" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H194" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H195" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H196" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H197" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H198" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H199" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H200" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H201" s="25">
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H190" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="191" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H191" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="192" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H192" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="193" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H193" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="194" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H194" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="195" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H195" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="196" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H196" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="197" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H197" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="198" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H198" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="199" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H199" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="200" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H200" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="201" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H201" s="29">
-        <v>9</v>
-      </c>
-    </row>
     <row r="202" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H202" s="29">
+      <c r="H202" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="203" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H203" s="29">
+      <c r="H203" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="204" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H204" s="29">
+      <c r="H204" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H205" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H206" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H207" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H208" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H209" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H210" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H211" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="212" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H212" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H213" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H214" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H215" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H216" s="25">
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H205" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="206" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H206" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="207" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H207" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="208" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H208" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="209" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H209" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="210" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H210" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="211" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H211" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="212" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H212" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="213" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H213" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="214" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H214" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="215" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H215" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="216" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H216" s="29">
-        <v>9</v>
-      </c>
-    </row>
     <row r="217" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H217" s="29">
+      <c r="H217" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="218" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H218" s="29">
+      <c r="H218" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="219" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H219" s="29">
+      <c r="H219" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H220" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="221" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H221" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H222" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H223" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H224" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="225" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H225" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="226" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H226" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H227" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="228" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H228" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="229" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H229" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="230" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H230" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H231" s="25">
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H220" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="221" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H221" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="222" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H222" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="223" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H223" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="224" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H224" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="225" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H225" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="226" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H226" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="227" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H227" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="228" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H228" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="229" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H229" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="230" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H230" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="231" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H231" s="29">
-        <v>9</v>
-      </c>
-    </row>
     <row r="232" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H232" s="29">
+      <c r="H232" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="233" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H233" s="29">
+      <c r="H233" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="234" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H234" s="29">
+      <c r="H234" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="235" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H235" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="236" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H236" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="237" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H237" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="238" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H238" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="239" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H239" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="240" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H240" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="241" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H241" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H242" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="243" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H243" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H244" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="245" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H245" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H246" s="25">
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H235" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="236" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H236" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="237" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H237" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="238" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H238" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="239" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H239" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="240" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H240" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="241" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H241" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="242" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H242" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="243" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H243" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="244" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H244" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="245" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H245" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="246" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H246" s="29">
-        <v>9</v>
-      </c>
-    </row>
     <row r="247" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H247" s="29">
+      <c r="H247" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="248" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H248" s="29">
+      <c r="H248" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="249" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H249" s="29">
+      <c r="H249" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="250" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H250" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H251" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="252" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H252" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="253" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H253" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="254" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H254" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="255" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H255" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="256" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H256" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="257" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H257" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H258" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="259" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H259" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="260" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H260" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="261" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H261" s="25">
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H250" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="251" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H251" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="252" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H252" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="253" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H253" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="254" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H254" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="255" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H255" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="256" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H256" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="257" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H257" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="258" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H258" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="259" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H259" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="260" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H260" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="261" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H261" s="29">
-        <v>9</v>
-      </c>
-    </row>
     <row r="262" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H262" s="29">
+      <c r="H262" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="263" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H263" s="29">
+      <c r="H263" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="264" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H264" s="29">
+      <c r="H264" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="265" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H265" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="266" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H266" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="267" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H267" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="268" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H268" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="269" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H269" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="270" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H270" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H271" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="272" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H272" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="273" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H273" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="274" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H274" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="275" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H275" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="276" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H276" s="25">
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H265" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="266" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H266" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="267" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H267" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="268" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H268" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="269" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H269" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="270" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H270" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="271" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H271" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="272" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H272" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="273" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H273" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="274" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H274" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="275" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H275" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="276" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H276" s="29">
-        <v>9</v>
-      </c>
-    </row>
     <row r="277" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H277" s="29">
+      <c r="H277" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="278" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H278" s="29">
+      <c r="H278" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="279" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H279" s="29">
+      <c r="H279" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="280" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H280" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="281" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H281" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="282" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H282" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="283" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H283" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="284" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H284" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="285" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H285" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="286" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H286" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="287" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H287" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="288" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H288" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="289" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H289" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="290" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H290" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="291" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H291" s="25">
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H280" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="281" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H281" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="282" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H282" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="283" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H283" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="284" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H284" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="285" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H285" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="286" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H286" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="287" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H287" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="288" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H288" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="289" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H289" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="290" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H290" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="291" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H291" s="29">
-        <v>9</v>
-      </c>
-    </row>
     <row r="292" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H292" s="29">
+      <c r="H292" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="293" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H293" s="29">
+      <c r="H293" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="294" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H294" s="29">
+      <c r="H294" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="295" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H295" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="296" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H296" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="297" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H297" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="298" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H298" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="299" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H299" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="300" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H300" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="301" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H301" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="302" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H302" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="303" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H303" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="304" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H304" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="305" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H305" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="306" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H306" s="25">
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H295" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="296" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H296" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="297" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H297" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="298" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H298" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="299" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H299" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="300" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H300" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="301" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H301" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="302" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H302" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="303" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H303" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="304" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H304" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="305" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H305" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="306" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H306" s="29">
-        <v>9</v>
-      </c>
-    </row>
     <row r="307" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H307" s="29">
+      <c r="H307" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="308" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H308" s="29">
+      <c r="H308" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="309" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H309" s="29">
+      <c r="H309" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="310" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H310" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="311" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H311" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="312" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H312" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="313" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H313" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="314" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H314" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="315" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H315" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="316" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H316" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="317" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H317" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="318" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H318" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="319" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H319" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="320" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H320" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="321" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H321" s="25">
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H310" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="311" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H311" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="312" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H312" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="313" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H313" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="314" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H314" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="315" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H315" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="316" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H316" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="317" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H317" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="318" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H318" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="319" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H319" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="320" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H320" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="321" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H321" s="29">
-        <v>9</v>
-      </c>
-    </row>
     <row r="322" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H322" s="29">
+      <c r="H322" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="323" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H323" s="29">
+      <c r="H323" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="324" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H324" s="29">
+      <c r="H324" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="325" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H325" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="326" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H326" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="327" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H327" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="328" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H328" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="329" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H329" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="330" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H330" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="331" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H331" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="332" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H332" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="333" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H333" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="334" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H334" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="335" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H335" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="336" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H336" s="25">
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H325" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="326" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H326" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="327" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H327" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="328" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H328" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="329" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H329" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="330" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H330" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="331" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H331" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="332" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H332" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="333" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H333" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="334" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H334" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="335" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H335" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="336" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H336" s="29">
-        <v>9</v>
-      </c>
-    </row>
     <row r="337" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H337" s="29">
+      <c r="H337" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="338" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H338" s="29">
+      <c r="H338" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="339" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H339" s="29">
+      <c r="H339" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="340" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H340" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="341" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H341" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="342" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H342" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="343" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H343" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="344" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H344" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="345" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H345" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="346" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H346" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="347" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H347" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="348" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H348" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="349" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H349" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="350" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H350" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="351" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H351" s="25">
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H340" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="341" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H341" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="342" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H342" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="343" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H343" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="344" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H344" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="345" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H345" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="346" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H346" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="347" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H347" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="348" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H348" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="349" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H349" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="350" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H350" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="351" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H351" s="29">
-        <v>9</v>
-      </c>
-    </row>
     <row r="352" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H352" s="29">
+      <c r="H352" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="353" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H353" s="29">
+      <c r="H353" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="354" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H354" s="29">
+      <c r="H354" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="355" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H355" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="356" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H356" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="357" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H357" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="358" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H358" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="359" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H359" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="360" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H360" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="361" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H361" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="362" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H362" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="363" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H363" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="364" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H364" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="365" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H365" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="366" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H366" s="25">
         <v>4</v>
       </c>
     </row>
-    <row r="355" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H355" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="356" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H356" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="357" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H357" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="358" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H358" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="359" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H359" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="360" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H360" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="361" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H361" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="362" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H362" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="363" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H363" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="364" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H364" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="365" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H365" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="366" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H366" s="29">
-        <v>9</v>
-      </c>
-    </row>
     <row r="367" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H367" s="29">
+      <c r="H367" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="368" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H368" s="29">
+      <c r="H368" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="369" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H369" s="29">
-        <v>4</v>
+      <c r="H369" s="25">
+        <v>9</v>
       </c>
     </row>
     <row r="370" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H370" s="29">
+      <c r="H370" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="371" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H371" s="29">
+      <c r="H371" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="372" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H372" s="29">
+      <c r="H372" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="373" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H373" s="29">
+      <c r="H373" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="374" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H374" s="29">
+      <c r="H374" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="375" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H375" s="29">
+      <c r="H375" s="25">
         <v>9</v>
       </c>
     </row>
     <row r="376" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H376" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="377" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H377" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="378" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H378" s="29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="379" spans="8:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="H379" s="29">
+      <c r="H376" s="25">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="AL2:AS2"/>
+  <mergeCells count="12">
+    <mergeCell ref="V2:AC2"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="F4:F5"/>
@@ -7114,74 +6790,71 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="Y2:AB2"/>
-    <mergeCell ref="AD2:AJ2"/>
+    <mergeCell ref="N2:T2"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="C4:C5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B47:G47 I47:J47">
-    <cfRule type="expression" dxfId="17" priority="2">
+  <conditionalFormatting sqref="B44:G44 I44:J44">
+    <cfRule type="expression" dxfId="17" priority="10">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:BJ5">
-    <cfRule type="expression" dxfId="16" priority="8">
+    <cfRule type="expression" dxfId="16" priority="16">
       <formula>K$5=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:R46">
-    <cfRule type="expression" dxfId="15" priority="13">
+  <conditionalFormatting sqref="K6:K14 M6:R14 R19:R20 K21:R43 K15:R18">
+    <cfRule type="expression" dxfId="15" priority="21">
       <formula>완료율</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="14">
+    <cfRule type="expression" dxfId="14" priority="22">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="15">
+    <cfRule type="expression" dxfId="13" priority="23">
       <formula>실제</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="16">
+    <cfRule type="expression" dxfId="12" priority="24">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="17">
+    <cfRule type="expression" dxfId="11" priority="25">
       <formula>계획</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="18">
+    <cfRule type="expression" dxfId="10" priority="26">
       <formula>#REF!=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="19">
+    <cfRule type="expression" dxfId="9" priority="27">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="20">
+    <cfRule type="expression" dxfId="8" priority="28">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S6:BR46">
-    <cfRule type="expression" dxfId="7" priority="21">
+  <conditionalFormatting sqref="S6:BR43">
+    <cfRule type="expression" dxfId="7" priority="29">
       <formula>완료율</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="22">
+    <cfRule type="expression" dxfId="6" priority="30">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="23">
+    <cfRule type="expression" dxfId="5" priority="31">
       <formula>실제</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="24">
+    <cfRule type="expression" dxfId="4" priority="32">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="25">
+    <cfRule type="expression" dxfId="3" priority="33">
       <formula>계획</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="26">
+    <cfRule type="expression" dxfId="2" priority="34">
       <formula>K$5=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="27">
+    <cfRule type="expression" dxfId="1" priority="35">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="28">
+    <cfRule type="expression" dxfId="0" priority="36">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7190,11 +6863,9 @@
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="1에서 60까지 범위의 값을 입력하고 목록에서 기간을 선택한 후 취소를 누르고 ALT+아래쪽 화살표를 누른 후 Enter 키를 눌러 값을 선택합니다." prompt="1에서 60까지 범위의 기간을 입력하거나 목록에서 기간을 선택합니다. Alt+아래쪽 화살표를 눌러 목록을 찾은 다음 Enter 키를 눌러 값을 선택합니다." sqref="K2:K3">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 범례 셀은 계획 기간을 나타냅니다." sqref="M2:M3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 범례 셀은 계획 기간을 나타냅니다." sqref="L6:L14 M2:M3 N19:Q20"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="범례 셀이 실제 기간을 나타냅니다." sqref="S2:S3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 범례 셀은 완료된 프로젝트의 백분율을 나타냅니다." sqref="X2:X3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 범례 셀은 계획을 넘어서는 실제 기간을 나타냅니다." sqref="AC2:AC3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 범례 셀은 계획을 넘어서 완료된 프로젝트의 백분율을 나타냅니다." sqref="AK2:AK3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="기간은 H4 셀에서 BO4 셀까지 1~60으로 차트화되어 있습니다. " sqref="K4"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="셀 B5부터 시작하여 B 열에 활동을 입력합니다._x000a_" sqref="B4:B5 C4:E4"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="셀 C5부터 시작하여 C 열에 계획 시작 기간을 입력합니다." sqref="F4:F5"/>
@@ -7204,6 +6875,8 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="G5 셀부터 시작하여 G 열에 완료된 프로젝트의 백분율을 입력합니다." sqref="J4:J5"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="프로젝트의 제목입니다. 이 셀에 새 제목을 입력합니다. H2 셀에서 기간을 강조 표시합니다. 차트 범례는 J2~AI2에 있습니다." sqref="B1:E1"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="H2 셀에서 강조 표시할 기간을 선택합니다. 차트 범례는 J2~AI2에 있습니다." sqref="B2:I3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 범례 셀은 계획을 넘어서는 실제 기간을 나타냅니다." sqref="AC3 L6:L14 M2 N19:Q20"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 범례 셀은 계획을 넘어서 완료된 프로젝트의 백분율을 나타냅니다." sqref="AK3 U2 K19:M20 K18:Q18"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.43307086614173229" right="0.43307086614173229" top="0.51181102362204722" bottom="0.51181102362204722" header="0.31496062992125984" footer="0.31496062992125984"/>
